--- a/money.xlsx
+++ b/money.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>郝浚珩</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>郝浚珩23刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱迪晨20刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱迪晨10刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱迪晨8刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,60 +600,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>

--- a/money.xlsx
+++ b/money.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>郝浚珩</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>钱迪晨8刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱迪晨4刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,20 +604,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,43 +630,46 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>

--- a/money.xlsx
+++ b/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>郝浚珩</t>
   </si>
@@ -53,10 +53,6 @@
     <t>张鸣鹤</t>
   </si>
   <si>
-    <t>张鸣鹤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骆沁毅</t>
   </si>
   <si>
@@ -85,18 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公共费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>私人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣液7刀，男生付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郝浚珩23刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +102,22 @@
   </si>
   <si>
     <t>钱迪晨4刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部8刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭煲23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水壶17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下男的3.5刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,8 +185,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,14 +308,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="117">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -530,70 +754,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>5.6</v>
+      </c>
+      <c r="C2">
+        <v>-1.4</v>
+      </c>
+      <c r="D2">
+        <v>-1.4</v>
+      </c>
+      <c r="E2">
+        <v>-1.4</v>
+      </c>
+      <c r="F2">
+        <v>-1.4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N23" si="0">SUM(B2:J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3">
+        <v>-4.45</v>
+      </c>
+      <c r="C3">
+        <v>-4.45</v>
+      </c>
+      <c r="D3">
+        <v>-4.45</v>
+      </c>
+      <c r="E3">
+        <v>-4.45</v>
+      </c>
+      <c r="F3">
+        <v>35.56</v>
+      </c>
+      <c r="G3">
+        <v>-4.45</v>
+      </c>
+      <c r="H3">
+        <v>-4.45</v>
+      </c>
+      <c r="I3">
+        <v>-4.45</v>
+      </c>
+      <c r="J3">
+        <v>-4.45</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999997371E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>-0.9</v>
+      </c>
+      <c r="C4">
+        <v>-0.9</v>
+      </c>
+      <c r="D4">
+        <v>-0.9</v>
+      </c>
+      <c r="E4">
+        <v>-0.9</v>
+      </c>
+      <c r="F4">
+        <v>7.2</v>
+      </c>
+      <c r="G4">
+        <v>-0.9</v>
+      </c>
+      <c r="H4">
+        <v>-0.9</v>
+      </c>
+      <c r="I4">
+        <v>-0.9</v>
+      </c>
+      <c r="J4">
+        <v>-0.9</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>-0.88</v>
+      </c>
+      <c r="C5">
+        <v>-0.88</v>
+      </c>
+      <c r="D5">
+        <v>-0.88</v>
+      </c>
+      <c r="F5">
+        <v>2.64</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>-5.88</v>
+      </c>
+      <c r="C6">
+        <v>-5.88</v>
+      </c>
+      <c r="D6">
+        <v>-5.88</v>
+      </c>
+      <c r="E6">
+        <v>-5.88</v>
+      </c>
+      <c r="F6">
+        <v>-5.88</v>
+      </c>
+      <c r="G6">
+        <v>29.4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>-3.53</v>
+      </c>
+      <c r="C7">
+        <v>-3.53</v>
+      </c>
+      <c r="D7">
+        <v>-3.53</v>
+      </c>
+      <c r="E7">
+        <v>-3.53</v>
+      </c>
+      <c r="F7">
+        <v>-3.53</v>
+      </c>
+      <c r="G7">
+        <v>28.24</v>
+      </c>
+      <c r="H7">
+        <v>-3.53</v>
+      </c>
+      <c r="I7">
+        <v>-3.53</v>
+      </c>
+      <c r="J7">
+        <v>-3.53</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8">
+        <v>21.39</v>
+      </c>
+      <c r="H8">
+        <v>-7.13</v>
+      </c>
+      <c r="I8">
+        <v>-7.13</v>
+      </c>
+      <c r="J8">
+        <v>-7.13</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>-3.4624999999999999</v>
+      </c>
+      <c r="G9">
+        <v>10.39</v>
+      </c>
+      <c r="H9">
+        <v>-3.4624999999999999</v>
+      </c>
+      <c r="J9">
+        <v>-3.4624999999999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2.5000000000003908E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>-11.7</v>
+      </c>
+      <c r="C10">
+        <v>-11.7</v>
+      </c>
+      <c r="D10">
+        <v>-11.7</v>
+      </c>
+      <c r="E10">
+        <v>-11.7</v>
+      </c>
+      <c r="F10">
+        <v>-11.7</v>
+      </c>
+      <c r="G10">
+        <v>58.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="C11">
+        <v>-8.39</v>
+      </c>
+      <c r="D11">
+        <v>-8.39</v>
+      </c>
+      <c r="E11">
+        <v>-8.39</v>
+      </c>
+      <c r="F11">
+        <v>-8.39</v>
+      </c>
+      <c r="G11">
+        <v>-8.39</v>
+      </c>
+      <c r="H11">
+        <v>-8.39</v>
+      </c>
+      <c r="I11">
+        <v>-8.39</v>
+      </c>
+      <c r="J11">
+        <v>-8.39</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000011369E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>13.35</v>
+      </c>
+      <c r="C12">
+        <v>-4.45</v>
+      </c>
+      <c r="D12">
+        <v>-4.45</v>
+      </c>
+      <c r="F12">
+        <v>-4.45</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>-9.5</v>
+      </c>
+      <c r="F13">
+        <v>9.5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="F14">
+        <v>-1.4</v>
+      </c>
+      <c r="H14">
+        <v>1.4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="G15">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H15">
+        <v>1.72</v>
+      </c>
+      <c r="I15">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J15">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C16">
+        <v>-4.71</v>
+      </c>
+      <c r="D16">
+        <v>-4.71</v>
+      </c>
+      <c r="E16">
+        <v>-4.71</v>
+      </c>
+      <c r="F16">
+        <v>-4.71</v>
+      </c>
+      <c r="G16">
+        <v>-4.71</v>
+      </c>
+      <c r="H16">
+        <v>-4.71</v>
+      </c>
+      <c r="I16">
+        <v>-4.71</v>
+      </c>
+      <c r="J16">
+        <v>-4.71</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1.9999999999997797E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>24.61</v>
+      </c>
+      <c r="C17">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="D17">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <v>-20</v>
+      </c>
+      <c r="G18">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <v>-4.05</v>
+      </c>
+      <c r="C19">
+        <v>-4.05</v>
+      </c>
+      <c r="D19">
+        <v>-4.05</v>
+      </c>
+      <c r="E19">
+        <v>-4.05</v>
+      </c>
+      <c r="F19">
+        <v>-4.05</v>
+      </c>
+      <c r="G19">
+        <v>32.44</v>
+      </c>
+      <c r="H19">
+        <v>-4.05</v>
+      </c>
+      <c r="I19">
+        <v>-4.05</v>
+      </c>
+      <c r="J19">
+        <v>-4.05</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3.9999999999997371E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>-20.45</v>
+      </c>
+      <c r="C20">
+        <v>-20.45</v>
+      </c>
+      <c r="D20">
+        <v>-20.45</v>
+      </c>
+      <c r="E20">
+        <v>-20.45</v>
+      </c>
+      <c r="F20">
+        <v>-20.45</v>
+      </c>
+      <c r="G20">
+        <v>-20.45</v>
+      </c>
+      <c r="H20">
+        <v>-20.45</v>
+      </c>
+      <c r="I20">
+        <v>163.62</v>
+      </c>
+      <c r="J20">
+        <v>-20.45</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="G21">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="H21">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="I21">
+        <v>13.68</v>
+      </c>
+      <c r="J21">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <v>-0.08</v>
+      </c>
+      <c r="C22">
+        <v>-0.08</v>
+      </c>
+      <c r="D22">
+        <v>-0.08</v>
+      </c>
+      <c r="E22">
+        <v>-0.08</v>
+      </c>
+      <c r="F22">
+        <v>-0.08</v>
+      </c>
+      <c r="G22">
+        <v>-0.08</v>
+      </c>
+      <c r="H22">
+        <v>-0.08</v>
+      </c>
+      <c r="I22">
+        <v>0.65</v>
+      </c>
+      <c r="J22">
+        <v>-0.08</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999672E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="G23">
+        <v>-3.25</v>
+      </c>
+      <c r="H23">
+        <v>-3.25</v>
+      </c>
+      <c r="I23">
+        <v>9.76</v>
+      </c>
+      <c r="J23">
+        <v>-3.25</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <f>SUM(B2:B23)</f>
+        <v>63.447499999999991</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:J24" si="1">SUM(C2:C23)</f>
+        <v>-79.069999999999993</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-79.069999999999993</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-65.539999999999992</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-19.339999999999993</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-61.842500000000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>153.97999999999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-65.532499999999999</v>
+      </c>
+      <c r="N24">
+        <f>SUM(B24:J24)</f>
+        <v>3.2499999999998863E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -604,77 +1360,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
